--- a/ANL.TS.002.xlsx
+++ b/ANL.TS.002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny Wang\PycharmProjects\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73083E12-ECDD-5040-A6E1-DE724C3748CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEB77EC-2DAC-45BC-8EEB-D9464C2115B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" xr2:uid="{A469F709-C28D-2D46-9AED-49FFF5E331BD}"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="33600" windowHeight="18900" xr2:uid="{A469F709-C28D-2D46-9AED-49FFF5E331BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1327,32 +1327,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914A26EF-AC2C-D54E-8AD0-2C97B0AC85D3}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6484375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.34765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.1484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="54.1640625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="3.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.1484375" style="1" customWidth="1"/>
+    <col min="18" max="20" width="11.6484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1430,24 +1430,11 @@
       <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2">
-        <f>IF(M2+L2 &lt;= 4, 3, 5)</f>
-        <v>3</v>
-      </c>
-      <c r="L2" s="2">
-        <f>IF(I2&gt;5, 1,IF(I2&gt;3,3,5))</f>
-        <v>3</v>
-      </c>
-      <c r="M2" s="2">
-        <f>IF(J2&gt;10, 1,IF(J2&gt;5,3,5))</f>
-        <v>1</v>
-      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1451,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1489,24 +1476,11 @@
       <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="0">IF(M3+L3 &lt;= 4, 3, 5)</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L66" si="1">IF(I3&gt;5, 1,IF(I3&gt;3,3,5))</f>
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M66" si="2">IF(J3&gt;10, 1,IF(J3&gt;5,3,5))</f>
-        <v>5</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1492,7 @@
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1543,30 +1517,17 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1591,24 +1552,11 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>200</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1616,7 +1564,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="62.4" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1641,30 +1589,17 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1689,30 +1624,17 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1737,30 +1659,17 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1785,24 +1694,11 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1710,7 @@
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1839,24 +1735,11 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +1751,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1893,24 +1776,11 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>7</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1792,7 @@
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1947,24 +1817,11 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +1833,7 @@
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2001,24 +1858,11 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2030,7 +1874,7 @@
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2055,24 +1899,11 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +1915,7 @@
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2109,24 +1940,11 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2140,7 +1958,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2165,24 +1983,11 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2194,7 +1999,7 @@
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2219,24 +2024,11 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>3</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2040,7 @@
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2273,24 +2065,11 @@
       <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="I18" s="2">
-        <v>7</v>
-      </c>
-      <c r="J18" s="2">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2081,7 @@
       </c>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2327,24 +2106,11 @@
       <c r="H19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2356,7 +2122,7 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2381,30 +2147,17 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2429,24 +2182,11 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <v>6</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2198,7 @@
       </c>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2483,23 +2223,11 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2511,7 +2239,7 @@
       </c>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2536,24 +2264,11 @@
       <c r="H23" s="2">
         <v>3</v>
       </c>
-      <c r="I23" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2">
-        <v>60</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2567,7 +2282,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2592,30 +2307,17 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2640,24 +2342,11 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2665,7 +2354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2690,30 +2379,17 @@
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="2">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2">
-        <v>4</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2738,30 +2414,17 @@
       <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="2">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2786,30 +2449,17 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2834,24 +2484,11 @@
       <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="I29" s="2">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
         <v>21</v>
       </c>
@@ -2863,7 +2500,7 @@
       </c>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2888,24 +2525,11 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
-        <v>3</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
         <v>21</v>
       </c>
@@ -2917,7 +2541,7 @@
       </c>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2942,23 +2566,11 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="I31" s="2">
-        <v>7</v>
-      </c>
-      <c r="J31" s="2">
-        <v>15</v>
-      </c>
-      <c r="K31" s="2">
-        <v>5</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2970,7 +2582,7 @@
       </c>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2995,24 +2607,11 @@
       <c r="H32" s="2">
         <v>3</v>
       </c>
-      <c r="I32" s="2">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2">
-        <v>8</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3024,7 +2623,7 @@
       </c>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3049,30 +2648,17 @@
       <c r="H33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="93.6" x14ac:dyDescent="0.6">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3097,21 +2683,11 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2">
-        <v>180</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -3119,7 +2695,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3144,24 +2720,11 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
-        <v>3</v>
-      </c>
-      <c r="J35" s="2">
-        <v>6</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3173,7 +2736,7 @@
       </c>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3198,24 +2761,11 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2">
-        <v>8</v>
-      </c>
-      <c r="J36" s="2">
-        <v>30</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3229,7 +2779,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3254,24 +2804,11 @@
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3283,7 +2820,7 @@
       </c>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3308,24 +2845,11 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
-        <v>2</v>
-      </c>
-      <c r="J38" s="2">
-        <v>2</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +2861,7 @@
       </c>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3362,23 +2886,11 @@
       <c r="H39" s="2">
         <v>5</v>
       </c>
-      <c r="I39" s="2">
-        <v>7</v>
-      </c>
-      <c r="J39" s="2">
-        <v>20</v>
-      </c>
-      <c r="K39" s="2">
-        <v>5</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +2902,7 @@
       </c>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3415,24 +2927,11 @@
       <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="2">
-        <v>4</v>
-      </c>
-      <c r="J40" s="2">
-        <v>5</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +2943,7 @@
       </c>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3469,24 +2968,11 @@
       <c r="H41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>6</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
         <v>21</v>
       </c>
@@ -3498,7 +2984,7 @@
       </c>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3523,24 +3009,11 @@
       <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
         <v>21</v>
       </c>
@@ -3554,7 +3027,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3579,24 +3052,11 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2">
-        <v>4</v>
-      </c>
-      <c r="J43" s="2">
-        <v>5</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
         <v>21</v>
       </c>
@@ -3608,7 +3068,7 @@
       </c>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3633,24 +3093,11 @@
       <c r="H44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
-        <v>2</v>
-      </c>
-      <c r="J44" s="2">
-        <v>2</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3109,7 @@
       </c>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3687,24 +3134,11 @@
       <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="2">
-        <v>3</v>
-      </c>
-      <c r="J45" s="2">
-        <v>4</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3150,7 @@
       </c>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3741,24 +3175,11 @@
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="2">
-        <v>3</v>
-      </c>
-      <c r="J46" s="2">
-        <v>3</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3191,7 @@
       </c>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3795,24 +3216,11 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>4</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
         <v>21</v>
       </c>
@@ -3824,7 +3232,7 @@
       </c>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3849,23 +3257,11 @@
       <c r="H48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" s="2">
-        <v>7</v>
-      </c>
-      <c r="J48" s="2">
-        <v>15</v>
-      </c>
-      <c r="K48" s="2">
-        <v>5</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
         <v>21</v>
       </c>
@@ -3877,7 +3273,7 @@
       </c>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3902,24 +3298,11 @@
       <c r="H49" s="2">
         <v>3</v>
       </c>
-      <c r="I49" s="2">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2">
-        <v>2</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3931,7 +3314,7 @@
       </c>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3956,24 +3339,11 @@
       <c r="H50" s="2">
         <v>3</v>
       </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
         <v>21</v>
       </c>
@@ -3987,7 +3357,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4012,24 +3382,11 @@
       <c r="H51" s="2">
         <v>1</v>
       </c>
-      <c r="I51" s="2">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2">
-        <v>2</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4041,7 +3398,7 @@
       </c>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4066,29 +3423,17 @@
       <c r="H52" s="2">
         <v>5</v>
       </c>
-      <c r="I52" s="2">
-        <v>7</v>
-      </c>
-      <c r="J52" s="2">
-        <v>20</v>
-      </c>
-      <c r="K52" s="2">
-        <v>5</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4113,30 +3458,17 @@
       <c r="H53" s="2">
         <v>3</v>
       </c>
-      <c r="I53" s="2">
-        <v>7</v>
-      </c>
-      <c r="J53" s="2">
-        <v>60</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4161,30 +3493,17 @@
       <c r="H54" s="2">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
-        <v>2</v>
-      </c>
-      <c r="J54" s="2">
-        <v>2</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4209,24 +3528,11 @@
       <c r="H55" s="2">
         <v>1</v>
       </c>
-      <c r="I55" s="2">
-        <v>3</v>
-      </c>
-      <c r="J55" s="2">
-        <v>4</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2" t="s">
         <v>21</v>
       </c>
@@ -4238,7 +3544,7 @@
       </c>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4263,24 +3569,11 @@
       <c r="H56" s="2">
         <v>1</v>
       </c>
-      <c r="I56" s="2">
-        <v>3</v>
-      </c>
-      <c r="J56" s="2">
-        <v>4</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
         <v>21</v>
       </c>
@@ -4292,7 +3585,7 @@
       </c>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4317,24 +3610,11 @@
       <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>2</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L57" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
         <v>21</v>
       </c>
@@ -4346,7 +3626,7 @@
       </c>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4371,23 +3651,11 @@
       <c r="H58" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="2">
-        <v>7</v>
-      </c>
-      <c r="J58" s="2">
-        <v>12</v>
-      </c>
-      <c r="K58" s="2">
-        <v>5</v>
-      </c>
-      <c r="L58" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2" t="s">
         <v>21</v>
       </c>
@@ -4399,7 +3667,7 @@
       </c>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4424,24 +3692,11 @@
       <c r="H59" s="2">
         <v>3</v>
       </c>
-      <c r="I59" s="2">
-        <v>3</v>
-      </c>
-      <c r="J59" s="2">
-        <v>5</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2" t="s">
         <v>21</v>
       </c>
@@ -4453,7 +3708,7 @@
       </c>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4476,30 +3731,17 @@
       <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="2">
-        <v>8</v>
-      </c>
-      <c r="J60" s="2">
-        <v>5</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4524,23 +3766,11 @@
       <c r="H61" s="2">
         <v>5</v>
       </c>
-      <c r="I61" s="2">
-        <v>8</v>
-      </c>
-      <c r="J61" s="2">
-        <v>15</v>
-      </c>
-      <c r="K61" s="2">
-        <v>5</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
       <c r="N61" s="2" t="s">
         <v>21</v>
       </c>
@@ -4552,7 +3782,7 @@
       </c>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4577,24 +3807,11 @@
       <c r="H62" s="2">
         <v>3</v>
       </c>
-      <c r="I62" s="2">
-        <v>30</v>
-      </c>
-      <c r="J62" s="2">
-        <v>300</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L62" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
       <c r="N62" s="2" t="s">
         <v>21</v>
       </c>
@@ -4608,7 +3825,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4633,24 +3850,11 @@
       <c r="H63" s="2">
         <v>1</v>
       </c>
-      <c r="I63" s="2">
-        <v>3</v>
-      </c>
-      <c r="J63" s="2">
-        <v>5</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
         <v>21</v>
       </c>
@@ -4662,7 +3866,7 @@
       </c>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4687,24 +3891,11 @@
       <c r="H64" s="2">
         <v>1</v>
       </c>
-      <c r="I64" s="2">
-        <v>21</v>
-      </c>
-      <c r="J64" s="2">
-        <v>40</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L64" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
       <c r="N64" s="2" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +3907,7 @@
       </c>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4741,24 +3932,11 @@
       <c r="H65" s="2">
         <v>1</v>
       </c>
-      <c r="I65" s="2">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2">
-        <v>2</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L65" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M65" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
         <v>21</v>
       </c>
@@ -4770,7 +3948,7 @@
       </c>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4795,24 +3973,11 @@
       <c r="H66" s="2">
         <v>1</v>
       </c>
-      <c r="I66" s="2">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2">
-        <v>4</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L66" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
         <v>21</v>
       </c>
@@ -4824,7 +3989,7 @@
       </c>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4849,24 +4014,11 @@
       <c r="H67" s="2">
         <v>1</v>
       </c>
-      <c r="I67" s="2">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2">
-        <v>3</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" ref="K67:K130" si="3">IF(M67+L67 &lt;= 4, 3, 5)</f>
-        <v>5</v>
-      </c>
-      <c r="L67" s="2">
-        <f t="shared" ref="L67:L130" si="4">IF(I67&gt;5, 1,IF(I67&gt;3,3,5))</f>
-        <v>5</v>
-      </c>
-      <c r="M67" s="2">
-        <f t="shared" ref="M67:M130" si="5">IF(J67&gt;10, 1,IF(J67&gt;5,3,5))</f>
-        <v>5</v>
-      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
       <c r="N67" s="2" t="s">
         <v>21</v>
       </c>
@@ -4878,7 +4030,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4903,24 +4055,11 @@
       <c r="H68" s="2">
         <v>1</v>
       </c>
-      <c r="I68" s="2">
-        <v>2</v>
-      </c>
-      <c r="J68" s="2">
-        <v>2</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L68" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +4071,7 @@
       </c>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4957,24 +4096,11 @@
       <c r="H69" s="2">
         <v>1</v>
       </c>
-      <c r="I69" s="2">
-        <v>4</v>
-      </c>
-      <c r="J69" s="2">
-        <v>6</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L69" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
         <v>21</v>
       </c>
@@ -4986,7 +4112,7 @@
       </c>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5011,24 +4137,11 @@
       <c r="H70" s="2">
         <v>3</v>
       </c>
-      <c r="I70" s="2">
-        <v>5</v>
-      </c>
-      <c r="J70" s="2">
-        <v>10</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
         <v>21</v>
       </c>
@@ -5040,7 +4153,7 @@
       </c>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5065,24 +4178,11 @@
       <c r="H71" s="2">
         <v>3</v>
       </c>
-      <c r="I71" s="2">
-        <v>5</v>
-      </c>
-      <c r="J71" s="2">
-        <v>7</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2" t="s">
         <v>21</v>
       </c>
@@ -5094,7 +4194,7 @@
       </c>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5119,23 +4219,11 @@
       <c r="H72" s="2">
         <v>1</v>
       </c>
-      <c r="I72" s="2">
-        <v>6</v>
-      </c>
-      <c r="J72" s="2">
-        <v>8</v>
-      </c>
-      <c r="K72" s="2">
-        <v>5</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
         <v>21</v>
       </c>
@@ -5147,7 +4235,7 @@
       </c>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5172,24 +4260,11 @@
       <c r="H73" s="2">
         <v>3</v>
       </c>
-      <c r="I73" s="2">
-        <v>2</v>
-      </c>
-      <c r="J73" s="2">
-        <v>2</v>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L73" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M73" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
       <c r="N73" s="2" t="s">
         <v>21</v>
       </c>
@@ -5201,7 +4276,7 @@
       </c>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5226,24 +4301,11 @@
       <c r="H74" s="2">
         <v>1</v>
       </c>
-      <c r="I74" s="2">
-        <v>2</v>
-      </c>
-      <c r="J74" s="2">
-        <v>2</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
       <c r="N74" s="2" t="s">
         <v>21</v>
       </c>
@@ -5255,7 +4317,7 @@
       </c>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5280,24 +4342,11 @@
       <c r="H75" s="2">
         <v>3</v>
       </c>
-      <c r="I75" s="2">
-        <v>4</v>
-      </c>
-      <c r="J75" s="2">
-        <v>6</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="2" t="s">
         <v>21</v>
       </c>
@@ -5309,7 +4358,7 @@
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5334,30 +4383,17 @@
       <c r="H76" s="2">
         <v>1</v>
       </c>
-      <c r="I76" s="2">
-        <v>2</v>
-      </c>
-      <c r="J76" s="2">
-        <v>4</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L76" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M76" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5382,23 +4418,11 @@
       <c r="H77" s="2">
         <v>3</v>
       </c>
-      <c r="I77" s="2">
-        <v>6</v>
-      </c>
-      <c r="J77" s="2">
-        <v>8</v>
-      </c>
-      <c r="K77" s="2">
-        <v>5</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +4434,7 @@
       </c>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5435,24 +4459,11 @@
       <c r="H78" s="2">
         <v>3</v>
       </c>
-      <c r="I78" s="2">
-        <v>4</v>
-      </c>
-      <c r="J78" s="2">
-        <v>4</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
         <v>21</v>
       </c>
@@ -5464,7 +4475,7 @@
       </c>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5489,24 +4500,11 @@
       <c r="H79" s="2">
         <v>1</v>
       </c>
-      <c r="I79" s="2">
-        <v>2</v>
-      </c>
-      <c r="J79" s="2">
-        <v>2</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L79" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
       <c r="N79" s="2" t="s">
         <v>21</v>
       </c>
@@ -5518,7 +4516,7 @@
       </c>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5543,24 +4541,11 @@
       <c r="H80" s="2">
         <v>3</v>
       </c>
-      <c r="I80" s="2">
-        <v>2</v>
-      </c>
-      <c r="J80" s="2">
-        <v>2</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L80" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
       <c r="N80" s="2" t="s">
         <v>21</v>
       </c>
@@ -5572,7 +4557,7 @@
       </c>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5597,24 +4582,11 @@
       <c r="H81" s="2">
         <v>3</v>
       </c>
-      <c r="I81" s="2">
-        <v>2</v>
-      </c>
-      <c r="J81" s="2">
-        <v>2</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L81" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M81" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
         <v>21</v>
       </c>
@@ -5626,7 +4598,7 @@
       </c>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5651,24 +4623,11 @@
       <c r="H82" s="2">
         <v>1</v>
       </c>
-      <c r="I82" s="2">
-        <v>2</v>
-      </c>
-      <c r="J82" s="2">
-        <v>4</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L82" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
       <c r="N82" s="2" t="s">
         <v>21</v>
       </c>
@@ -5680,7 +4639,7 @@
       </c>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5705,24 +4664,11 @@
       <c r="H83" s="2">
         <v>3</v>
       </c>
-      <c r="I83" s="2">
-        <v>3</v>
-      </c>
-      <c r="J83" s="2">
-        <v>4</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L83" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
         <v>21</v>
       </c>
@@ -5734,7 +4680,7 @@
       </c>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5759,24 +4705,11 @@
       <c r="H84" s="2">
         <v>1</v>
       </c>
-      <c r="I84" s="2">
-        <v>2</v>
-      </c>
-      <c r="J84" s="2">
-        <v>2</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L84" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
         <v>21</v>
       </c>
@@ -5788,7 +4721,7 @@
       </c>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5813,24 +4746,11 @@
       <c r="H85" s="2">
         <v>3</v>
       </c>
-      <c r="I85" s="2">
-        <v>8</v>
-      </c>
-      <c r="J85" s="2">
-        <v>10</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L85" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
         <v>21</v>
       </c>
@@ -5842,7 +4762,7 @@
       </c>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5867,24 +4787,11 @@
       <c r="H86" s="2">
         <v>3</v>
       </c>
-      <c r="I86" s="2">
-        <v>3</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2</v>
-      </c>
-      <c r="K86" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L86" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
         <v>21</v>
       </c>
@@ -5896,7 +4803,7 @@
       </c>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5921,24 +4828,11 @@
       <c r="H87" s="2">
         <v>1</v>
       </c>
-      <c r="I87" s="2">
-        <v>2</v>
-      </c>
-      <c r="J87" s="2">
-        <v>2</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
       <c r="N87" s="2" t="s">
         <v>21</v>
       </c>
@@ -5950,7 +4844,7 @@
       </c>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5975,24 +4869,11 @@
       <c r="H88" s="2">
         <v>1</v>
       </c>
-      <c r="I88" s="2">
-        <v>12</v>
-      </c>
-      <c r="J88" s="2">
-        <v>15</v>
-      </c>
-      <c r="K88" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L88" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
         <v>21</v>
       </c>
@@ -6006,7 +4887,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6031,24 +4912,11 @@
       <c r="H89" s="2">
         <v>1</v>
       </c>
-      <c r="I89" s="2">
-        <v>1</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2" t="s">
         <v>21</v>
       </c>
@@ -6060,7 +4928,7 @@
       </c>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6085,24 +4953,11 @@
       <c r="H90" s="2">
         <v>1</v>
       </c>
-      <c r="I90" s="2">
-        <v>3</v>
-      </c>
-      <c r="J90" s="2">
-        <v>2</v>
-      </c>
-      <c r="K90" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L90" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2" t="s">
         <v>21</v>
       </c>
@@ -6114,7 +4969,7 @@
       </c>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6139,24 +4994,11 @@
       <c r="H91" s="2">
         <v>1</v>
       </c>
-      <c r="I91" s="2">
-        <v>8</v>
-      </c>
-      <c r="J91" s="2">
-        <v>20</v>
-      </c>
-      <c r="K91" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L91" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
         <v>21</v>
       </c>
@@ -6168,7 +5010,7 @@
       </c>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6193,23 +5035,11 @@
       <c r="H92" s="2">
         <v>1</v>
       </c>
-      <c r="I92" s="2">
-        <v>7</v>
-      </c>
-      <c r="J92" s="2">
-        <v>15</v>
-      </c>
-      <c r="K92" s="2">
-        <v>5</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
         <v>21</v>
       </c>
@@ -6221,7 +5051,7 @@
       </c>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6246,30 +5076,17 @@
       <c r="H93" s="2">
         <v>1</v>
       </c>
-      <c r="I93" s="2">
-        <v>6</v>
-      </c>
-      <c r="J93" s="2">
-        <v>10</v>
-      </c>
-      <c r="K93" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L93" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6294,24 +5111,11 @@
       <c r="H94" s="2">
         <v>1</v>
       </c>
-      <c r="I94" s="2">
-        <v>7</v>
-      </c>
-      <c r="J94" s="2">
-        <v>20</v>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L94" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
         <v>21</v>
       </c>
@@ -6325,7 +5129,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6350,24 +5154,11 @@
       <c r="H95" s="2">
         <v>1</v>
       </c>
-      <c r="I95" s="2">
-        <v>11</v>
-      </c>
-      <c r="J95" s="2">
-        <v>20</v>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L95" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
         <v>21</v>
       </c>
@@ -6379,7 +5170,7 @@
       </c>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6404,24 +5195,11 @@
       <c r="H96" s="2">
         <v>1</v>
       </c>
-      <c r="I96" s="2">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
         <v>21</v>
       </c>
@@ -6433,7 +5211,7 @@
       </c>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6458,24 +5236,11 @@
       <c r="H97" s="2">
         <v>1</v>
       </c>
-      <c r="I97" s="2">
-        <v>10</v>
-      </c>
-      <c r="J97" s="2">
-        <v>15</v>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L97" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
         <v>21</v>
       </c>
@@ -6487,7 +5252,7 @@
       </c>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6512,24 +5277,11 @@
       <c r="H98" s="2">
         <v>1</v>
       </c>
-      <c r="I98" s="2">
-        <v>18</v>
-      </c>
-      <c r="J98" s="2">
-        <v>22</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
         <v>21</v>
       </c>
@@ -6541,7 +5293,7 @@
       </c>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6566,24 +5318,11 @@
       <c r="H99" s="2">
         <v>1</v>
       </c>
-      <c r="I99" s="2">
-        <v>22</v>
-      </c>
-      <c r="J99" s="2">
-        <v>50</v>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L99" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2" t="s">
         <v>21</v>
       </c>
@@ -6595,7 +5334,7 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6620,21 +5359,11 @@
       <c r="H100" s="2">
         <v>3</v>
       </c>
-      <c r="I100" s="2">
-        <v>50</v>
-      </c>
-      <c r="J100" s="2">
-        <v>600</v>
-      </c>
-      <c r="K100" s="2">
-        <v>1</v>
-      </c>
-      <c r="L100" s="2">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
-        <v>0</v>
-      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
         <v>21</v>
       </c>
@@ -6648,7 +5377,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6673,24 +5402,11 @@
       <c r="H101" s="2">
         <v>1</v>
       </c>
-      <c r="I101" s="2">
-        <v>2</v>
-      </c>
-      <c r="J101" s="2">
-        <v>2</v>
-      </c>
-      <c r="K101" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L101" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2" t="s">
         <v>21</v>
       </c>
@@ -6704,7 +5420,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6729,24 +5445,11 @@
       <c r="H102" s="2">
         <v>1</v>
       </c>
-      <c r="I102" s="2">
-        <v>5</v>
-      </c>
-      <c r="J102" s="2">
-        <v>5</v>
-      </c>
-      <c r="K102" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L102" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
         <v>21</v>
       </c>
@@ -6758,7 +5461,7 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6783,24 +5486,11 @@
       <c r="H103" s="2">
         <v>1</v>
       </c>
-      <c r="I103" s="2">
-        <v>6</v>
-      </c>
-      <c r="J103" s="2">
-        <v>10</v>
-      </c>
-      <c r="K103" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L103" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2" t="s">
         <v>21</v>
       </c>
@@ -6812,7 +5502,7 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6837,24 +5527,11 @@
       <c r="H104" s="2">
         <v>1</v>
       </c>
-      <c r="I104" s="2">
-        <v>1</v>
-      </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L104" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="2" t="s">
         <v>21</v>
       </c>
@@ -6866,7 +5543,7 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6891,24 +5568,11 @@
       <c r="H105" s="2">
         <v>1</v>
       </c>
-      <c r="I105" s="2">
-        <v>5</v>
-      </c>
-      <c r="J105" s="2">
-        <v>6</v>
-      </c>
-      <c r="K105" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
       <c r="N105" s="2" t="s">
         <v>21</v>
       </c>
@@ -6920,7 +5584,7 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6945,24 +5609,11 @@
       <c r="H106" s="2">
         <v>1</v>
       </c>
-      <c r="I106" s="2">
-        <v>22</v>
-      </c>
-      <c r="J106" s="2">
-        <v>60</v>
-      </c>
-      <c r="K106" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L106" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M106" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
       <c r="N106" s="2" t="s">
         <v>21</v>
       </c>
@@ -6974,7 +5625,7 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -6999,24 +5650,11 @@
       <c r="H107" s="2">
         <v>1</v>
       </c>
-      <c r="I107" s="2">
-        <v>9</v>
-      </c>
-      <c r="J107" s="2">
-        <v>10</v>
-      </c>
-      <c r="K107" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L107" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
       <c r="N107" s="2" t="s">
         <v>21</v>
       </c>
@@ -7028,7 +5666,7 @@
       </c>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7053,24 +5691,11 @@
       <c r="H108" s="2">
         <v>1</v>
       </c>
-      <c r="I108" s="2">
-        <v>1</v>
-      </c>
-      <c r="J108" s="5">
-        <v>1</v>
-      </c>
-      <c r="K108" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L108" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M108" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
         <v>21</v>
       </c>
@@ -7082,7 +5707,7 @@
       </c>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7107,24 +5732,11 @@
       <c r="H109" s="2">
         <v>1</v>
       </c>
-      <c r="I109" s="2">
-        <v>7</v>
-      </c>
-      <c r="J109" s="2">
-        <v>10</v>
-      </c>
-      <c r="K109" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L109" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
         <v>21</v>
       </c>
@@ -7136,7 +5748,7 @@
       </c>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7161,24 +5773,11 @@
       <c r="H110" s="2">
         <v>1</v>
       </c>
-      <c r="I110" s="2">
-        <v>6</v>
-      </c>
-      <c r="J110" s="2">
-        <v>6</v>
-      </c>
-      <c r="K110" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L110" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M110" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
         <v>21</v>
       </c>
@@ -7190,7 +5789,7 @@
       </c>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7215,24 +5814,11 @@
       <c r="H111" s="2">
         <v>1</v>
       </c>
-      <c r="I111" s="2">
-        <v>10</v>
-      </c>
-      <c r="J111" s="2">
-        <v>8</v>
-      </c>
-      <c r="K111" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L111" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
         <v>21</v>
       </c>
@@ -7244,7 +5830,7 @@
       </c>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7269,24 +5855,11 @@
       <c r="H112" s="2">
         <v>1</v>
       </c>
-      <c r="I112" s="2">
-        <v>3</v>
-      </c>
-      <c r="J112" s="2">
-        <v>2</v>
-      </c>
-      <c r="K112" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L112" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +5871,7 @@
       </c>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7323,24 +5896,11 @@
       <c r="H113" s="2">
         <v>1</v>
       </c>
-      <c r="I113" s="2">
-        <v>12</v>
-      </c>
-      <c r="J113" s="2">
-        <v>25</v>
-      </c>
-      <c r="K113" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L113" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M113" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
         <v>21</v>
       </c>
@@ -7352,7 +5912,7 @@
       </c>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7377,24 +5937,11 @@
       <c r="H114" s="2">
         <v>1</v>
       </c>
-      <c r="I114" s="2">
-        <v>4</v>
-      </c>
-      <c r="J114" s="2">
-        <v>6</v>
-      </c>
-      <c r="K114" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L114" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M114" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
       <c r="N114" s="2" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +5953,7 @@
       </c>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7431,24 +5978,11 @@
       <c r="H115" s="2">
         <v>1</v>
       </c>
-      <c r="I115" s="2">
-        <v>5</v>
-      </c>
-      <c r="J115" s="2">
-        <v>5</v>
-      </c>
-      <c r="K115" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L115" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="2" t="s">
         <v>21</v>
       </c>
@@ -7462,7 +5996,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7487,24 +6021,11 @@
       <c r="H116" s="2">
         <v>1</v>
       </c>
-      <c r="I116" s="2">
-        <v>8</v>
-      </c>
-      <c r="J116" s="2">
-        <v>7</v>
-      </c>
-      <c r="K116" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L116" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M116" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
       <c r="N116" s="2" t="s">
         <v>21</v>
       </c>
@@ -7516,7 +6037,7 @@
       </c>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7541,24 +6062,11 @@
       <c r="H117" s="2">
         <v>1</v>
       </c>
-      <c r="I117" s="2">
-        <v>8</v>
-      </c>
-      <c r="J117" s="2">
-        <v>6</v>
-      </c>
-      <c r="K117" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L117" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M117" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
       <c r="N117" s="2" t="s">
         <v>21</v>
       </c>
@@ -7570,7 +6078,7 @@
       </c>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7595,24 +6103,11 @@
       <c r="H118" s="2">
         <v>1</v>
       </c>
-      <c r="I118" s="2">
-        <v>10</v>
-      </c>
-      <c r="J118" s="2">
-        <v>7</v>
-      </c>
-      <c r="K118" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L118" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M118" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
         <v>21</v>
       </c>
@@ -7624,7 +6119,7 @@
       </c>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7649,24 +6144,11 @@
       <c r="H119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="2">
-        <v>5</v>
-      </c>
-      <c r="J119" s="2">
-        <v>8</v>
-      </c>
-      <c r="K119" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L119" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M119" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
         <v>21</v>
       </c>
@@ -7678,7 +6160,7 @@
       </c>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7703,24 +6185,11 @@
       <c r="H120" s="2">
         <v>1</v>
       </c>
-      <c r="I120" s="2">
-        <v>4</v>
-      </c>
-      <c r="J120" s="2">
-        <v>4</v>
-      </c>
-      <c r="K120" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L120" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M120" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
       <c r="N120" s="2" t="s">
         <v>21</v>
       </c>
@@ -7734,7 +6203,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7759,24 +6228,11 @@
       <c r="H121" s="2">
         <v>1</v>
       </c>
-      <c r="I121" s="2">
-        <v>6</v>
-      </c>
-      <c r="J121" s="2">
-        <v>5</v>
-      </c>
-      <c r="K121" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L121" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M121" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
         <v>21</v>
       </c>
@@ -7788,7 +6244,7 @@
       </c>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7813,24 +6269,11 @@
       <c r="H122" s="2">
         <v>1</v>
       </c>
-      <c r="I122" s="2">
-        <v>8</v>
-      </c>
-      <c r="J122" s="2">
-        <v>6</v>
-      </c>
-      <c r="K122" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L122" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M122" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
         <v>21</v>
       </c>
@@ -7842,7 +6285,7 @@
       </c>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7867,24 +6310,11 @@
       <c r="H123" s="2">
         <v>1</v>
       </c>
-      <c r="I123" s="2">
-        <v>9</v>
-      </c>
-      <c r="J123" s="2">
-        <v>8</v>
-      </c>
-      <c r="K123" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L123" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M123" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
         <v>21</v>
       </c>
@@ -7896,7 +6326,7 @@
       </c>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7921,24 +6351,11 @@
       <c r="H124" s="2">
         <v>1</v>
       </c>
-      <c r="I124" s="2">
-        <v>5</v>
-      </c>
-      <c r="J124" s="2">
-        <v>10</v>
-      </c>
-      <c r="K124" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L124" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M124" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
         <v>21</v>
       </c>
@@ -7950,7 +6367,7 @@
       </c>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7975,24 +6392,11 @@
       <c r="H125" s="2">
         <v>1</v>
       </c>
-      <c r="I125" s="2">
-        <v>20</v>
-      </c>
-      <c r="J125" s="2">
-        <v>30</v>
-      </c>
-      <c r="K125" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L125" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M125" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="2" t="s">
         <v>21</v>
       </c>
@@ -8004,7 +6408,7 @@
       </c>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8029,24 +6433,11 @@
       <c r="H126" s="2">
         <v>1</v>
       </c>
-      <c r="I126" s="2">
-        <v>18</v>
-      </c>
-      <c r="J126" s="2">
-        <v>40</v>
-      </c>
-      <c r="K126" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L126" s="2">
-        <f>IF(I126&gt;5, 1,IF(I126&gt;3,3,5))</f>
-        <v>1</v>
-      </c>
-      <c r="M126" s="2">
-        <f>IF(J126&gt;10, 1,IF(J126&gt;5,3,5))</f>
-        <v>1</v>
-      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
       <c r="N126" s="2" t="s">
         <v>21</v>
       </c>
@@ -8060,7 +6451,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8085,24 +6476,11 @@
       <c r="H127" s="2">
         <v>1</v>
       </c>
-      <c r="I127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
-      <c r="K127" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L127" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M127" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
       <c r="N127" s="2" t="s">
         <v>21</v>
       </c>
@@ -8114,7 +6492,7 @@
       </c>
       <c r="Q127" s="2"/>
     </row>
-    <row r="128" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8139,24 +6517,11 @@
       <c r="H128" s="2">
         <v>1</v>
       </c>
-      <c r="I128" s="2">
-        <v>24</v>
-      </c>
-      <c r="J128" s="2">
-        <v>40</v>
-      </c>
-      <c r="K128" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L128" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M128" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
       <c r="N128" s="2" t="s">
         <v>21</v>
       </c>
@@ -8168,7 +6533,7 @@
       </c>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8193,23 +6558,11 @@
       <c r="H129" s="2">
         <v>1</v>
       </c>
-      <c r="I129" s="2">
-        <v>15</v>
-      </c>
-      <c r="J129" s="2">
-        <v>25</v>
-      </c>
-      <c r="K129" s="2">
-        <v>5</v>
-      </c>
-      <c r="L129" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M129" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
       <c r="N129" s="2" t="s">
         <v>21</v>
       </c>
@@ -8223,7 +6576,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8248,24 +6601,11 @@
       <c r="H130" s="2">
         <v>1</v>
       </c>
-      <c r="I130" s="2">
-        <v>7</v>
-      </c>
-      <c r="J130" s="2">
-        <v>7</v>
-      </c>
-      <c r="K130" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L130" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M130" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
       <c r="N130" s="2" t="s">
         <v>21</v>
       </c>
@@ -8277,7 +6617,7 @@
       </c>
       <c r="Q130" s="2"/>
     </row>
-    <row r="131" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8302,24 +6642,11 @@
       <c r="H131" s="2">
         <v>1</v>
       </c>
-      <c r="I131" s="2">
-        <v>29</v>
-      </c>
-      <c r="J131" s="2">
-        <v>50</v>
-      </c>
-      <c r="K131" s="2">
-        <f t="shared" ref="K131:K136" si="6">IF(M131+L131 &lt;= 4, 3, 5)</f>
-        <v>3</v>
-      </c>
-      <c r="L131" s="2">
-        <f t="shared" ref="L131:L136" si="7">IF(I131&gt;5, 1,IF(I131&gt;3,3,5))</f>
-        <v>1</v>
-      </c>
-      <c r="M131" s="2">
-        <f t="shared" ref="M131:M136" si="8">IF(J131&gt;10, 1,IF(J131&gt;5,3,5))</f>
-        <v>1</v>
-      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="2" t="s">
         <v>21</v>
       </c>
@@ -8331,7 +6658,7 @@
       </c>
       <c r="Q131" s="2"/>
     </row>
-    <row r="132" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8356,24 +6683,11 @@
       <c r="H132" s="2">
         <v>1</v>
       </c>
-      <c r="I132" s="2">
-        <v>5</v>
-      </c>
-      <c r="J132" s="2">
-        <v>7</v>
-      </c>
-      <c r="K132" s="2">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L132" s="2">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="M132" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
       <c r="N132" s="2" t="s">
         <v>21</v>
       </c>
@@ -8385,7 +6699,7 @@
       </c>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8410,24 +6724,11 @@
       <c r="H133" s="2">
         <v>1</v>
       </c>
-      <c r="I133" s="2">
-        <v>1</v>
-      </c>
-      <c r="J133" s="2">
-        <v>1</v>
-      </c>
-      <c r="K133" s="2">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L133" s="2">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M133" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
       <c r="N133" s="2" t="s">
         <v>21</v>
       </c>
@@ -8439,7 +6740,7 @@
       </c>
       <c r="Q133" s="2"/>
     </row>
-    <row r="134" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8464,24 +6765,11 @@
       <c r="H134" s="2">
         <v>1</v>
       </c>
-      <c r="I134" s="2">
-        <v>28</v>
-      </c>
-      <c r="J134" s="2">
-        <v>50</v>
-      </c>
-      <c r="K134" s="2">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L134" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M134" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
       <c r="N134" s="2" t="s">
         <v>21</v>
       </c>
@@ -8493,7 +6781,7 @@
       </c>
       <c r="Q134" s="2"/>
     </row>
-    <row r="135" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8518,24 +6806,11 @@
       <c r="H135" s="2">
         <v>1</v>
       </c>
-      <c r="I135" s="2">
-        <v>3</v>
-      </c>
-      <c r="J135" s="2">
-        <v>4</v>
-      </c>
-      <c r="K135" s="2">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L135" s="2">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M135" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
       <c r="N135" s="2" t="s">
         <v>21</v>
       </c>
@@ -8547,7 +6822,7 @@
       </c>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8572,24 +6847,11 @@
       <c r="H136" s="2">
         <v>1</v>
       </c>
-      <c r="I136" s="2">
-        <v>12</v>
-      </c>
-      <c r="J136" s="2">
-        <v>10</v>
-      </c>
-      <c r="K136" s="2">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L136" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M136" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
       <c r="N136" s="2" t="s">
         <v>21</v>
       </c>
